--- a/biology/Zoologie/Conus_venezuelanus/Conus_venezuelanus.xlsx
+++ b/biology/Zoologie/Conus_venezuelanus/Conus_venezuelanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus venezuelanus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La longueur maximale enregistrée de la coquille est de 27 mm[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur maximale enregistrée de la coquille est de 27 mm. 
 </t>
         </is>
       </c>
@@ -543,12 +557,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Locus typicus : « Au large de Puerto Cabello, Golfo de Triste, Venezuela »[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locus typicus : « Au large de Puerto Cabello, Golfo de Triste, Venezuela ».
 Cette espèce est présente dans la mer des Caraïbes au large du Venezuela.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve au large des côtes de la Colombie et du Venezuela. Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie préoccupation mineure[3].
 </t>
         </is>
       </c>
@@ -574,15 +588,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve au large des côtes de la Colombie et du Venezuela. Il n'y a pas de menaces connues. Cette espèce est classée dans la catégorie préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_venezuelanus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_venezuelanus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus venezuelanus a été décrite pour la première fois en 1987 par le malacologiste américain Edward James Petuch (d) dans « Charlottesville, Virginia: The Coastal Education and Research Foundation »[4],[5].
-Synonymes
-Conasprelloides venezuelanus (Petuch, 1987) · non accepté
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus venezuelanus a été décrite pour la première fois en 1987 par le malacologiste américain Edward James Petuch (d) dans « Charlottesville, Virginia: The Coastal Education and Research Foundation »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_venezuelanus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_venezuelanus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conasprelloides venezuelanus (Petuch, 1987) · non accepté
 Conus (Dauciconus) venezuelanus Petuch, 1987 · appellation alternative</t>
         </is>
       </c>
